--- a/数据整理/stocks/A股/上证主板/605266-健之佳.xlsx
+++ b/数据整理/stocks/A股/上证主板/605266-健之佳.xlsx
@@ -1,108 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>161611</t>
-  </si>
-  <si>
-    <t>009188</t>
-  </si>
-  <si>
-    <t>融通内需驱动混合</t>
-  </si>
-  <si>
-    <t>鹏华股息精选混合</t>
-  </si>
-  <si>
-    <t>2.57</t>
-  </si>
-  <si>
-    <t>0.84</t>
-  </si>
-  <si>
-    <t>94.18</t>
-  </si>
-  <si>
-    <t>97.15</t>
-  </si>
-  <si>
-    <t>4.36</t>
-  </si>
-  <si>
-    <t>4.35</t>
-  </si>
-  <si>
-    <t>0.1121</t>
-  </si>
-  <si>
-    <t>0.0365</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -427,89 +446,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/605266-健之佳.xlsx
+++ b/数据整理/stocks/A股/上证主板/605266-健之佳.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/605266-健之佳.xlsx
+++ b/数据整理/stocks/A股/上证主板/605266-健之佳.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -678,7 +679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,17 +690,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -709,14 +730,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.09</v>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6098</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -725,13 +768,347 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2614</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605266-健之佳.xlsx
+++ b/数据整理/stocks/A股/上证主板/605266-健之佳.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1039,7 +1040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,17 +1051,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1070,14 +1091,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.18</v>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2362</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1086,14 +1129,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.09</v>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5269</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1102,13 +1167,249 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2553</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605266-健之佳.xlsx
+++ b/数据整理/stocks/A股/上证主板/605266-健之佳.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1324,7 +1325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,17 +1336,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1355,14 +1376,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.11</v>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6124</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1371,14 +1414,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.18</v>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5363</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1387,14 +1452,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.09</v>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5257</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1403,13 +1490,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605266-健之佳.xlsx
+++ b/数据整理/stocks/A股/上证主板/605266-健之佳.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>2.75</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>2.11</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>3.18</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -632,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.18</t>
+          <t>22.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.32</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6124</t>
+          <t>1.2973</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -660,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009805</t>
+          <t>009274</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰医药健康股票A</t>
+          <t>融通健康产业灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.79</t>
+          <t>17.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5363</t>
+          <t>1.0108</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -698,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009274</t>
+          <t>009805</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融通健康产业灵活配置混合C</t>
+          <t>国泰医药健康股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>8.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.32</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5257</t>
+          <t>0.5243</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -736,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011326</t>
+          <t>011404</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰医药健康股票C</t>
+          <t>融通鑫新成长混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>9.83</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0393</t>
+          <t>0.1720</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -774,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009078</t>
+          <t>011403</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>红土创新稳进混合C</t>
+          <t>融通鑫新成长混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>23.90</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>9.83</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0252</t>
+          <t>0.0383</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -812,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009077</t>
+          <t>011326</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>红土创新稳进混合A</t>
+          <t>国泰医药健康股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>23.90</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0102</t>
+          <t>0.0313</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -916,26 +933,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.30</t>
+          <t>20.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>92.32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.08</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2362</t>
+          <t>1.6124</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -954,22 +971,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.14</t>
+          <t>10.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5269</t>
+          <t>0.5363</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -992,26 +1009,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>92.32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.08</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2553</t>
+          <t>0.5257</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1030,22 +1047,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0473</t>
+          <t>0.0393</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1058,36 +1075,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011807</t>
+          <t>009078</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>平安研究精选混合型证券投资基金A</t>
+          <t>红土创新稳进混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.59</t>
+          <t>23.90</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0326</t>
+          <t>0.0252</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1096,36 +1113,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011808</t>
+          <t>009077</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>平安研究精选混合型证券投资基金C</t>
+          <t>红土创新稳进混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.59</t>
+          <t>23.90</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0134</t>
+          <t>0.0102</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1134,6 +1151,290 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2362</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5269</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2553</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1493,7 +1794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1587,7 +1888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/605266-健之佳.xlsx
+++ b/数据整理/stocks/A股/上证主板/605266-健之佳.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>3.07</v>
+        <v>9.859999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>2.75</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>2.11</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>3.18</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -588,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000727</t>
+          <t>009274</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>融通健康产业灵活配置混合A</t>
+          <t>融通健康产业灵活配置混合C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.64</t>
+          <t>49.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>94.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2973</t>
+          <t>2.0962</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009274</t>
+          <t>000727</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通健康产业灵活配置混合C</t>
+          <t>融通健康产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.64</t>
+          <t>41.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>94.21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0108</t>
+          <t>1.7472</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -715,32 +732,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009805</t>
+          <t>010709</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰医药健康股票A</t>
+          <t>安信医药健康主题股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.71</t>
+          <t>27.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>94.69</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5243</t>
+          <t>1.0406</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -753,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011404</t>
+          <t>009805</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>融通鑫新成长混合C</t>
+          <t>国泰医药健康股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>10.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.07</t>
+          <t>93.35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.83</t>
+          <t>9.35</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1720</t>
+          <t>0.9677</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -791,36 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011403</t>
+          <t>010710</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>融通鑫新成长混合A</t>
+          <t>安信医药健康主题股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>24.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.07</t>
+          <t>94.69</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.83</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0383</t>
+          <t>0.9334</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -829,36 +846,1328 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011404</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通鑫新成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2690</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2218</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2055</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1712</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015553</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>融通价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1563</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013037</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城大健康混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014841</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方阿尔法医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011403</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>融通鑫新成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015052</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>011326</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>国泰医药健康股票C</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015554</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>融通价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013483</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006243</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银双息回报混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>69.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014842</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方阿尔法医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015032</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>0.52</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0313</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015053</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013038</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城大健康混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015562</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015033</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中融医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014454</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银双息回报混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>69.91</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -933,26 +2242,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.18</t>
+          <t>22.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.32</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6124</t>
+          <t>1.2973</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -961,36 +2270,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009805</t>
+          <t>009274</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰医药健康股票A</t>
+          <t>融通健康产业灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.79</t>
+          <t>17.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5363</t>
+          <t>1.0108</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -999,36 +2308,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009274</t>
+          <t>009805</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融通健康产业灵活配置混合C</t>
+          <t>国泰医药健康股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>8.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.32</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5257</t>
+          <t>0.5243</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1037,36 +2346,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011326</t>
+          <t>011404</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰医药健康股票C</t>
+          <t>融通鑫新成长混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>9.83</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0393</t>
+          <t>0.1720</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1075,36 +2384,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009078</t>
+          <t>011403</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>红土创新稳进混合C</t>
+          <t>融通鑫新成长混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>23.90</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>9.83</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0252</t>
+          <t>0.0383</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1113,36 +2422,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009077</t>
+          <t>011326</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>红土创新稳进混合A</t>
+          <t>国泰医药健康股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>23.90</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0102</t>
+          <t>0.0313</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1217,26 +2526,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.30</t>
+          <t>20.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>92.32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.08</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2362</t>
+          <t>1.6124</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1255,22 +2564,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.14</t>
+          <t>10.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5269</t>
+          <t>0.5363</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1293,26 +2602,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>92.32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.08</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2553</t>
+          <t>0.5257</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1331,22 +2640,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0473</t>
+          <t>0.0393</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1359,36 +2668,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011807</t>
+          <t>009078</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>平安研究精选混合型证券投资基金A</t>
+          <t>红土创新稳进混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.59</t>
+          <t>23.90</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0326</t>
+          <t>0.0252</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1397,36 +2706,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011808</t>
+          <t>009077</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>平安研究精选混合型证券投资基金C</t>
+          <t>红土创新稳进混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.59</t>
+          <t>23.90</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0134</t>
+          <t>0.0102</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1435,6 +2744,290 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2362</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5269</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2553</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1794,7 +3387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1888,7 +3481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
